--- a/高仿小米官网的进度.xlsx
+++ b/高仿小米官网的进度.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高仿小米官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,15 +100,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二级菜单栏及轮播图（TopBanner.vue）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部导航(TopBar.vue)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部二级(TopHeader.vue)</t>
+    <t>TopSub，配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度有点慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度有点慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度有点慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭配，搭框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影音硬件，周边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边，内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件，视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     2017/8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭配切换，为你推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热评产品，详情页面内容1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页面部分内容2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页面部分内容3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +233,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +332,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -581,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -602,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -616,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -630,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -668,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -682,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -696,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -755,62 +816,190 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
-        <v>42948</v>
-      </c>
-      <c r="D14" s="10">
-        <v>42948</v>
+        <v>42949</v>
+      </c>
+      <c r="D14" s="20">
+        <v>42950</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3">
-        <v>42948</v>
-      </c>
-      <c r="D15" s="9">
-        <v>42948</v>
+        <v>42949</v>
+      </c>
+      <c r="D15" s="21">
+        <v>42950</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="11">
-        <v>42948</v>
-      </c>
-      <c r="D16" s="12">
-        <v>42948</v>
+        <v>42949</v>
+      </c>
+      <c r="D16" s="22">
+        <v>42950</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>16</v>
+      <c r="C19" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11">
+        <v>42951</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>42952</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>42952</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11">
+        <v>42952</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
